--- a/boat/NewAirboatMaintenanceLog.xlsx
+++ b/boat/NewAirboatMaintenanceLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevenbeck\Desktop\BoatsTruck\AlumitechAirboat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevenbeck\Desktop\Reef_Project\Git\Beck_LC_R\boat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="49">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -493,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y40"/>
+  <dimension ref="A1:Y42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,6 +1131,25 @@
         <v>23</v>
       </c>
     </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>43456</v>
+      </c>
+      <c r="B41">
+        <v>70</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>43457</v>
+      </c>
+      <c r="B42">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/boat/NewAirboatMaintenanceLog.xlsx
+++ b/boat/NewAirboatMaintenanceLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>load test</t>
+  </si>
+  <si>
+    <t>NEW ODOMETER, starts at zero</t>
+  </si>
+  <si>
+    <t>New Copper Header Gaskets</t>
   </si>
 </sst>
 </file>
@@ -493,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y42"/>
+  <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,6 +1156,124 @@
         <v>70</v>
       </c>
     </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>43470</v>
+      </c>
+      <c r="B43">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43471</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>43472</v>
+      </c>
+      <c r="B45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>43487</v>
+      </c>
+      <c r="B46">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>43488</v>
+      </c>
+      <c r="B47">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>43500</v>
+      </c>
+      <c r="B48">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>43501</v>
+      </c>
+      <c r="B49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>43502</v>
+      </c>
+      <c r="B50">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>43503</v>
+      </c>
+      <c r="B51">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>43511</v>
+      </c>
+      <c r="C52" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>43514</v>
+      </c>
+      <c r="B53">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>43515</v>
+      </c>
+      <c r="B54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>43516</v>
+      </c>
+      <c r="B55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>43517</v>
+      </c>
+      <c r="B56">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
